--- a/Document/02. Design/02. DetailDesign/Task 3/Detail_Design_Contacting_candidate.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 3/Detail_Design_Contacting_candidate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\Task 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\Candidate-Management\Document\02. Design\02. DetailDesign\Task 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152BD7BE-FB0F-490B-9DA1-77D09EF0B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04BCA38-6E5F-4A44-9FCF-277168BE73A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{087F029F-0DBF-4394-8E83-3D034C799CF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087F029F-0DBF-4394-8E83-3D034C799CF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Detail Design Screen Contacting" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>Mã Số</t>
   </si>
@@ -352,13 +351,28 @@
   </si>
   <si>
     <t>API candidate.pathCV</t>
+  </si>
+  <si>
+    <t>Hiển Thị Khởi Tạo</t>
+  </si>
+  <si>
+    <t>Thực Hiện Action Update</t>
+  </si>
+  <si>
+    <t>Thực Hiện Action Update  ALL</t>
+  </si>
+  <si>
+    <t>Thực Hiện Action Check  ALL</t>
+  </si>
+  <si>
+    <t>Thực Hiện Action View CV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +419,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -492,7 +514,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -512,27 +534,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,9 +547,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -745,14 +770,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>391442</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>105641</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>146462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -775,8 +800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4572000"/>
-          <a:ext cx="6573167" cy="6201640"/>
+          <a:off x="0" y="5184321"/>
+          <a:ext cx="6596299" cy="6188034"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,14 +814,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>391442</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>181556</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>4663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -819,8 +844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11068050"/>
-          <a:ext cx="6573167" cy="4163006"/>
+          <a:off x="0" y="12006943"/>
+          <a:ext cx="6596299" cy="4149399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,13 +858,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>153284</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>38670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -863,8 +888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15192375"/>
-          <a:ext cx="6335009" cy="4086795"/>
+          <a:off x="0" y="17015732"/>
+          <a:ext cx="6358141" cy="4073188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,14 +902,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>496062</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>114634</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>32991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,8 +932,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19621500"/>
-          <a:ext cx="5458587" cy="2400635"/>
+          <a:off x="0" y="21730607"/>
+          <a:ext cx="5476276" cy="2400634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,14 +1074,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>74838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1071,8 +1096,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4800600" y="15859125"/>
-          <a:ext cx="2085975" cy="676275"/>
+          <a:off x="4815568" y="17696088"/>
+          <a:ext cx="2096861" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1102,14 +1127,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>36738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1124,8 +1149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934200" y="15678150"/>
-          <a:ext cx="1847850" cy="904875"/>
+          <a:off x="6960054" y="17338220"/>
+          <a:ext cx="3201760" cy="1081768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1177,14 +1202,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>580809</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>153761</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1207,8 +1232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21847629"/>
-          <a:ext cx="6241380" cy="1993446"/>
+          <a:off x="0" y="25197707"/>
+          <a:ext cx="6173345" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,28 +1544,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDECC073-0D85-47F8-9A13-E9E8B0A1FA45}">
   <dimension ref="A18:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1604,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1641,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1692,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1760,7 +1785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1794,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1814,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1843,42 +1868,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C544F5B9-D95F-432E-BAF0-2659A92CBDBF}">
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120:L120"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="29.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="39.77734375" customWidth="1"/>
-    <col min="15" max="15" width="50.44140625" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="45.33203125" customWidth="1"/>
+    <col min="14" max="14" width="39.7109375" customWidth="1"/>
+    <col min="15" max="15" width="50.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
@@ -1892,263 +1917,270 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="35" spans="11:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="K35" s="22" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="35" spans="11:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K35" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="L35" s="15"/>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K37" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K38" s="8" t="s">
         <v>73</v>
       </c>
@@ -2165,7 +2197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K39">
         <v>1</v>
       </c>
@@ -2182,12 +2214,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K42" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K43" s="8" t="s">
         <v>73</v>
       </c>
@@ -2204,7 +2236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K44" s="2">
         <v>1</v>
       </c>
@@ -2221,7 +2253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K45" s="2">
         <v>2</v>
       </c>
@@ -2238,7 +2270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K46" s="2">
         <v>3</v>
       </c>
@@ -2255,18 +2287,25 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="13:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="M64" s="23" t="s">
+    <row r="61" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+    </row>
+    <row r="64" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="M64" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="N64" s="24"/>
-    </row>
-    <row r="67" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="N64" s="17"/>
+    </row>
+    <row r="67" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M67" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M68" s="8" t="s">
         <v>73</v>
       </c>
@@ -2283,7 +2322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M69">
         <v>1</v>
       </c>
@@ -2300,12 +2339,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M72" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M73" s="8" t="s">
         <v>73</v>
       </c>
@@ -2322,7 +2361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M74" s="2">
         <v>1</v>
       </c>
@@ -2339,7 +2378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M75" s="2">
         <v>2</v>
       </c>
@@ -2356,25 +2395,31 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="85" spans="13:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="M85" s="23" t="s">
+    <row r="85" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="M85" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="N85" s="24"/>
-    </row>
-    <row r="87" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="N85" s="17"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M87" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M88" s="8" t="s">
         <v>73</v>
       </c>
@@ -2391,7 +2436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M89">
         <v>1</v>
       </c>
@@ -2408,12 +2453,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M92" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M93" s="8" t="s">
         <v>73</v>
       </c>
@@ -2430,7 +2475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M94" s="2">
         <v>1</v>
       </c>
@@ -2447,7 +2492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M95" s="2">
         <v>2</v>
       </c>
@@ -2464,138 +2509,155 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="120" spans="10:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="K120" s="23" t="s">
+    <row r="109" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A126" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="K126" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="L120" s="24"/>
-    </row>
-    <row r="122" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J122" s="7" t="s">
+      <c r="L126" s="17"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J128" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J123" s="8" t="s">
+    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J129" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K129" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L129" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M129" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="8" t="s">
+      <c r="N129" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J124">
+    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J130">
         <v>1</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K130" t="s">
         <v>96</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L130" t="s">
         <v>45</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M130" t="s">
         <v>76</v>
       </c>
-      <c r="N124" t="s">
+      <c r="N130" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J127" s="7" t="s">
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J133" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J128" s="8" t="s">
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J134" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K128" s="8" t="s">
+      <c r="K134" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L128" s="8" t="s">
+      <c r="L134" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M128" s="8" t="s">
+      <c r="M134" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N128" s="8" t="s">
+      <c r="N134" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J129" s="10">
+    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J135" s="10">
         <v>1</v>
       </c>
-      <c r="K129" s="10" t="s">
+      <c r="K135" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L129" s="10" t="s">
+      <c r="L135" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M129" s="10" t="s">
+      <c r="M135" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N129" s="10" t="s">
+      <c r="N135" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J130" s="10">
+    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J136" s="10">
         <v>2</v>
       </c>
-      <c r="K130" s="10" t="s">
+      <c r="K136" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L130" s="10" t="s">
+      <c r="L136" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M130" s="10" t="s">
+      <c r="M136" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N130" s="10" t="s">
+      <c r="N136" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J131" s="10">
+    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J137" s="10">
         <v>3</v>
       </c>
-      <c r="K131" s="10" t="s">
+      <c r="K137" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L131" s="10" t="s">
+      <c r="L137" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M131" s="10" t="s">
+      <c r="M137" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="N131" s="10" t="s">
+      <c r="N137" s="10" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K120:L120"/>
+  <mergeCells count="28">
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
@@ -2609,11 +2671,13 @@
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K126:L126"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D20:J20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
